--- a/Document/AppUpdate/app增量升级.xlsx
+++ b/Document/AppUpdate/app增量升级.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="0" windowWidth="30760" windowHeight="19940" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1160" yWindow="0" windowWidth="30760" windowHeight="19940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="App升级" sheetId="1" r:id="rId1"/>
-    <sheet name="App升级具体操作" sheetId="2" r:id="rId2"/>
+    <sheet name="App升级具体物理操作" sheetId="2" r:id="rId2"/>
     <sheet name="测试过程" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="114">
   <si>
     <t>独立应用集成方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -329,14 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关于App增量升级流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>App的程序开发阶段完成,该阶段确定了新增，修改，删除的资源文件,包括html,js,css,图片等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>将这部分资源按照工程目录的结构打成zip的压缩包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,9 +341,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.0.105:8088/arm/</t>
-  </si>
-  <si>
     <t>3-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -392,23 +381,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>其它的文件均在与manifest.json同一级别目录下的www文件夹中，该文件夹中只加入新增和修改的文件，删除的文件不用加入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在跳转的页面中,点击"选取文件",选择之前的做好的zip压缩包，压缩包制作参考2，点击上传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果有新的版本中存在需要删除的文件,则在页面中展示的树型目录中删除</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最终结果的确认，也在当前页面的文件状态列表查看，其中"更新状态"列表示的是该版本中相关文件的新增/修改和删除。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以上，即是升级的物理操作。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -492,6 +469,70 @@
   </si>
   <si>
     <t>跨越版本升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拷贝manifest.json到该www文件夹下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改manifest.json文件中的版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将www文件夹压缩为zip格式的包,并且将zip格式改成wgtu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注:压缩格式必须为zip;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发阶段完成,确定新增，修改，删除的资源文件,包括html,js,css,图片等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它的文件均在与manifest.json同一级目录下的www文件夹中，该文件夹中只加入新增和修改的文件，删除的文件不用加入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照工程目录的结构,拷贝新增/修改的文件到www文件夹下,包括文件所在的目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>则在www文件夹中，新建plus文件夹,将工程中的setting.html拷贝到该plus文件夹中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆 http://192.168.0.105:8088/arm/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在跳转的页面中,点击"选取文件",选择之前的做好的wgtu压缩包，点击上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果存在删除的文件，在web中配置(见3-5)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,8 +744,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -805,7 +856,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="75">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -838,6 +889,11 @@
     <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -870,6 +926,11 @@
     <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1282,9 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R82"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
@@ -1768,126 +1827,285 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E27"/>
+  <dimension ref="C4:P46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5">
-      <c r="C3" s="1" t="s">
+    <row r="4" spans="3:6">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="3:5">
-      <c r="C6" s="1">
+    <row r="7" spans="3:6">
+      <c r="D7" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="E8" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6">
+      <c r="E9" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6">
+      <c r="E10" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="D12" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="E14" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="E15" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="F16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16">
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="4"/>
+      <c r="L17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="4"/>
+    </row>
+    <row r="18" spans="4:16">
+      <c r="F18" s="5"/>
+      <c r="G18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="4:16">
+      <c r="F19" s="5"/>
+      <c r="G19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="7"/>
+    </row>
+    <row r="20" spans="4:16">
+      <c r="F20" s="5"/>
+      <c r="G20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="4:16">
+      <c r="F21" s="5"/>
+      <c r="G21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="7"/>
+    </row>
+    <row r="22" spans="4:16">
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="24" spans="4:16">
+      <c r="E24" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16">
+      <c r="F26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16">
+      <c r="F27" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16">
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16">
+      <c r="E30" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5">
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="3:5">
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
+    <row r="34" spans="3:5">
+      <c r="D34" s="13" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="E9" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="E10" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5">
+      <c r="D35" s="13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="D13" s="13" t="s">
+      <c r="E35" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="D36" s="13"/>
+      <c r="E36" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="D37" s="13"/>
+    </row>
+    <row r="38" spans="3:5">
+      <c r="D38" s="13"/>
+    </row>
+    <row r="39" spans="3:5">
+      <c r="D39" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="D14" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5">
+      <c r="E40" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="3:5">
-      <c r="D15" s="13"/>
-      <c r="E15" s="1" t="s">
+    <row r="42" spans="3:5">
+      <c r="D42" s="13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" s="13"/>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="4:5">
-      <c r="E19" s="1" t="s">
+    <row r="44" spans="3:5">
+      <c r="D44" s="13" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="D21" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="3:5">
+      <c r="E45" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="4:5">
-      <c r="D23" s="13" t="s">
+    <row r="46" spans="3:5">
+      <c r="E46" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="E24" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="E25" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="4:5">
-      <c r="D27" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1906,7 +2124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
@@ -1921,52 +2139,52 @@
   <sheetData>
     <row r="3" spans="2:6">
       <c r="B3" s="14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="17" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="E7" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>99</v>
-      </c>
       <c r="F7" s="19" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="17" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="20"/>
